--- a/code/the_beatles/df_the_beatles.xlsx
+++ b/code/the_beatles/df_the_beatles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="943">
   <si>
     <t>title</t>
   </si>
@@ -523,6 +523,9 @@
     <t>mailman_bring_me_no_more_blues</t>
   </si>
   <si>
+    <t>marlena</t>
+  </si>
+  <si>
     <t>martha_my_dear</t>
   </si>
   <si>
@@ -1457,6 +1460,9 @@
   </si>
   <si>
     <t>https://www.lyrics.com/lyric/5654969/The+Beatles/Mailman%2C+Bring+Me+No+More+Blues</t>
+  </si>
+  <si>
+    <t>https://www.lyrics.com/lyric/13973393/The+Beatles/Marlena</t>
   </si>
   <si>
     <t>https://www.lyrics.com/lyric/35602199/The+Beatles/Martha+My+Dear</t>
@@ -6833,6 +6839,13 @@
 One more heartache is all I can use. 
 Mailman, bring me no more blues. 
 Mailman, bring me no more blues</t>
+  </si>
+  <si>
+    <t>Mar - le - na.
+Marlena. (Marlena, ooh.)
+Don't go, oh, no; whoa, whoa. (Whoa, whoa.)
+'Cause I love you so; whoa, whoa. (Whoa, whoa.)
+Never gonna ...</t>
   </si>
   <si>
     <t>Martha, my dear
@@ -11724,7 +11737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11755,10 +11768,10 @@
         <v>1979</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11772,10 +11785,10 @@
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11789,10 +11802,10 @@
         <v>2016</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11806,10 +11819,10 @@
         <v>1994</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11823,10 +11836,10 @@
         <v>1994</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11840,10 +11853,10 @@
         <v>2009</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11857,10 +11870,10 @@
         <v>1999</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11874,10 +11887,10 @@
         <v>1973</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11891,10 +11904,10 @@
         <v>1988</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11908,10 +11921,10 @@
         <v>1995</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11925,10 +11938,10 @@
         <v>1964</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11942,10 +11955,10 @@
         <v>1996</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11959,10 +11972,10 @@
         <v>2009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11976,10 +11989,10 @@
         <v>2001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E15" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11993,10 +12006,10 @@
         <v>1995</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12010,10 +12023,10 @@
         <v>2009</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E17" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12027,10 +12040,10 @@
         <v>2006</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12044,10 +12057,10 @@
         <v>1992</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12061,10 +12074,10 @@
         <v>2014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E20" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12078,10 +12091,10 @@
         <v>1964</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12095,10 +12108,10 @@
         <v>1963</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E22" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12112,10 +12125,10 @@
         <v>1995</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12129,10 +12142,10 @@
         <v>1964</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12146,10 +12159,10 @@
         <v>2010</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12163,10 +12176,10 @@
         <v>2001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E26" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12180,10 +12193,10 @@
         <v>1999</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12197,10 +12210,10 @@
         <v>1993</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12214,10 +12227,10 @@
         <v>2001</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12231,10 +12244,10 @@
         <v>2013</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E30" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12248,10 +12261,10 @@
         <v>1989</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12265,10 +12278,10 @@
         <v>2009</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E32" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12282,10 +12295,10 @@
         <v>1979</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E33" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12299,10 +12312,10 @@
         <v>1991</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E34" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12316,10 +12329,10 @@
         <v>1990</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E35" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -12333,10 +12346,10 @@
         <v>2014</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -12350,10 +12363,10 @@
         <v>2013</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E37" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12367,10 +12380,10 @@
         <v>1993</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E38" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -12384,10 +12397,10 @@
         <v>1964</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -12401,10 +12414,10 @@
         <v>2013</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -12418,10 +12431,10 @@
         <v>1969</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E41" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -12435,10 +12448,10 @@
         <v>1964</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -12452,10 +12465,10 @@
         <v>2013</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -12469,10 +12482,10 @@
         <v>1993</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E44" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12486,10 +12499,10 @@
         <v>1996</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -12503,10 +12516,10 @@
         <v>1994</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -12520,10 +12533,10 @@
         <v>1994</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -12537,10 +12550,10 @@
         <v>1993</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -12554,10 +12567,10 @@
         <v>2001</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E49" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -12571,10 +12584,10 @@
         <v>2014</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -12588,10 +12601,10 @@
         <v>1988</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -12605,10 +12618,10 @@
         <v>1993</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -12622,10 +12635,10 @@
         <v>2014</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E53" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -12639,10 +12652,10 @@
         <v>2009</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -12656,10 +12669,10 @@
         <v>2016</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -12673,10 +12686,10 @@
         <v>2014</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -12690,10 +12703,10 @@
         <v>2009</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -12707,10 +12720,10 @@
         <v>2014</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -12724,10 +12737,10 @@
         <v>2013</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E59" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -12741,10 +12754,10 @@
         <v>1973</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -12758,10 +12771,10 @@
         <v>1990</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -12775,10 +12788,10 @@
         <v>1966</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -12792,10 +12805,10 @@
         <v>1994</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -12809,10 +12822,10 @@
         <v>2014</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -12826,10 +12839,10 @@
         <v>2000</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12843,10 +12856,10 @@
         <v>2000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E66" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -12860,10 +12873,10 @@
         <v>1996</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -12877,10 +12890,10 @@
         <v>1964</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -12894,10 +12907,10 @@
         <v>1994</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -12911,10 +12924,10 @@
         <v>1994</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -12928,10 +12941,10 @@
         <v>1967</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -12945,10 +12958,10 @@
         <v>2001</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -12962,10 +12975,10 @@
         <v>1970</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -12979,10 +12992,10 @@
         <v>2000</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -12996,10 +13009,10 @@
         <v>2000</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E75" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13013,10 +13026,10 @@
         <v>2015</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E76" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13030,10 +13043,10 @@
         <v>1994</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E77" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13047,10 +13060,10 @@
         <v>1969</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E78" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13064,10 +13077,10 @@
         <v>1965</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E79" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13081,10 +13094,10 @@
         <v>2013</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E80" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13098,10 +13111,10 @@
         <v>2018</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -13115,10 +13128,10 @@
         <v>2006</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13132,10 +13145,10 @@
         <v>1969</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13149,10 +13162,10 @@
         <v>2009</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E84" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13166,10 +13179,10 @@
         <v>2011</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E85" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -13183,10 +13196,10 @@
         <v>1969</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E86" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -13200,10 +13213,10 @@
         <v>2013</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E87" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -13217,10 +13230,10 @@
         <v>1995</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E88" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -13234,10 +13247,10 @@
         <v>2006</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -13251,10 +13264,10 @@
         <v>1994</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -13268,10 +13281,10 @@
         <v>1991</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E91" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -13285,10 +13298,10 @@
         <v>2009</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E92" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -13302,10 +13315,10 @@
         <v>1980</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -13319,10 +13332,10 @@
         <v>1968</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E94" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -13336,10 +13349,10 @@
         <v>1977</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -13353,10 +13366,10 @@
         <v>1964</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -13370,10 +13383,10 @@
         <v>1994</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E97" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -13387,10 +13400,10 @@
         <v>1993</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E98" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -13404,10 +13417,10 @@
         <v>1967</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -13421,10 +13434,10 @@
         <v>1995</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E100" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -13438,10 +13451,10 @@
         <v>1964</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -13455,10 +13468,10 @@
         <v>2009</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E102" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -13472,10 +13485,10 @@
         <v>1994</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E103" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -13489,10 +13502,10 @@
         <v>2013</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -13506,10 +13519,10 @@
         <v>2013</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -13523,10 +13536,10 @@
         <v>1994</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -13540,10 +13553,10 @@
         <v>1970</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E107" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -13557,10 +13570,10 @@
         <v>1992</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E108" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -13574,10 +13587,10 @@
         <v>1977</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E109" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -13591,10 +13604,10 @@
         <v>2009</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E110" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13608,10 +13621,10 @@
         <v>1994</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E111" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13625,10 +13638,10 @@
         <v>1992</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -13642,10 +13655,10 @@
         <v>2010</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E113" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -13659,10 +13672,10 @@
         <v>1966</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E114" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13676,10 +13689,10 @@
         <v>2019</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E115" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -13693,10 +13706,10 @@
         <v>1968</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -13710,10 +13723,10 @@
         <v>1964</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E117" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13727,10 +13740,10 @@
         <v>2014</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E118" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13744,10 +13757,10 @@
         <v>1995</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -13761,10 +13774,10 @@
         <v>1995</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E120" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13778,10 +13791,10 @@
         <v>1995</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E121" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -13795,10 +13808,10 @@
         <v>1993</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E122" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -13812,10 +13825,10 @@
         <v>1977</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13829,10 +13842,10 @@
         <v>2009</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E124" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -13846,10 +13859,10 @@
         <v>1996</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E125" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -13863,10 +13876,10 @@
         <v>2009</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E126" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13880,10 +13893,10 @@
         <v>1996</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E127" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -13897,10 +13910,10 @@
         <v>2013</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E128" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -13914,10 +13927,10 @@
         <v>1996</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E129" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -13931,10 +13944,10 @@
         <v>1995</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E130" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -13948,10 +13961,10 @@
         <v>2014</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E131" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -13965,10 +13978,10 @@
         <v>2009</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -13982,10 +13995,10 @@
         <v>1993</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E133" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -13999,10 +14012,10 @@
         <v>1973</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E134" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -14016,10 +14029,10 @@
         <v>1993</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E135" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -14033,10 +14046,10 @@
         <v>2007</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E136" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -14050,10 +14063,10 @@
         <v>1999</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E137" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -14067,10 +14080,10 @@
         <v>1999</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -14084,10 +14097,10 @@
         <v>2001</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E139" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -14101,10 +14114,10 @@
         <v>1999</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -14118,10 +14131,10 @@
         <v>1984</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E141" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -14135,10 +14148,10 @@
         <v>1994</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E142" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -14152,10 +14165,10 @@
         <v>1991</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E143" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -14169,10 +14182,10 @@
         <v>1996</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E144" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -14186,10 +14199,10 @@
         <v>1984</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E145" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -14203,10 +14216,10 @@
         <v>1964</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E146" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -14220,10 +14233,10 @@
         <v>2009</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E147" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -14237,10 +14250,10 @@
         <v>1994</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E148" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -14254,10 +14267,10 @@
         <v>1988</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E149" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -14271,10 +14284,10 @@
         <v>2006</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E150" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -14288,10 +14301,10 @@
         <v>1977</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E151" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -14305,10 +14318,10 @@
         <v>1996</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E152" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -14322,10 +14335,10 @@
         <v>1993</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E153" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -14339,10 +14352,10 @@
         <v>1994</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E154" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -14356,10 +14369,10 @@
         <v>2000</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E155" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -14373,10 +14386,10 @@
         <v>1984</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E156" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -14390,10 +14403,10 @@
         <v>1990</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E157" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -14407,10 +14420,10 @@
         <v>2017</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E158" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -14424,10 +14437,10 @@
         <v>1984</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E159" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -14441,10 +14454,10 @@
         <v>1991</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -14458,10 +14471,10 @@
         <v>1967</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E161" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -14475,10 +14488,10 @@
         <v>1994</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E162" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -14492,10 +14505,10 @@
         <v>1995</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E163" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -14509,10 +14522,10 @@
         <v>2009</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E164" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -14526,10 +14539,10 @@
         <v>1995</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E165" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -14543,66 +14556,66 @@
         <v>2001</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E166" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
         <v>169</v>
       </c>
       <c r="C167">
-        <v>2014</v>
+        <v>1964</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E167" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B168" t="s">
         <v>170</v>
       </c>
       <c r="C168">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E168" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B169" t="s">
         <v>171</v>
       </c>
       <c r="C169">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E169" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
         <v>172</v>
@@ -14611,576 +14624,576 @@
         <v>2009</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E170" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
         <v>173</v>
       </c>
       <c r="C171">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E171" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s">
         <v>174</v>
       </c>
       <c r="C172">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E172" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B173" t="s">
         <v>175</v>
       </c>
       <c r="C173">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E173" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
         <v>176</v>
       </c>
       <c r="C174">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E174" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s">
         <v>177</v>
       </c>
       <c r="C175">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E175" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B176" t="s">
         <v>178</v>
       </c>
       <c r="C176">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E176" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
         <v>179</v>
       </c>
       <c r="C177">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E177" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
         <v>180</v>
       </c>
       <c r="C178">
-        <v>1988</v>
+        <v>2011</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E178" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
         <v>181</v>
       </c>
       <c r="C179">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E179" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
         <v>182</v>
       </c>
       <c r="C180">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E180" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B181" t="s">
         <v>183</v>
       </c>
       <c r="C181">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E181" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B182" t="s">
         <v>184</v>
       </c>
       <c r="C182">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E182" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B183" t="s">
         <v>185</v>
       </c>
       <c r="C183">
-        <v>1968</v>
+        <v>1994</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E183" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B184" t="s">
         <v>186</v>
       </c>
       <c r="C184">
-        <v>2000</v>
+        <v>1968</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E184" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B185" t="s">
         <v>187</v>
       </c>
       <c r="C185">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E185" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B186" t="s">
         <v>188</v>
       </c>
       <c r="C186">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E186" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B187" t="s">
         <v>189</v>
       </c>
       <c r="C187">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
         <v>190</v>
       </c>
       <c r="C188">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E188" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B189" t="s">
         <v>191</v>
       </c>
       <c r="C189">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E189" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B190" t="s">
         <v>192</v>
       </c>
       <c r="C190">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E190" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B191" t="s">
         <v>193</v>
       </c>
       <c r="C191">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E191" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B192" t="s">
         <v>194</v>
       </c>
       <c r="C192">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E192" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B193" t="s">
         <v>195</v>
       </c>
       <c r="C193">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E193" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B194" t="s">
         <v>196</v>
       </c>
       <c r="C194">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E194" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B195" t="s">
         <v>197</v>
       </c>
       <c r="C195">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E195" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B196" t="s">
         <v>198</v>
       </c>
       <c r="C196">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E196" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B197" t="s">
         <v>199</v>
       </c>
       <c r="C197">
-        <v>1964</v>
+        <v>1993</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E197" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B198" t="s">
         <v>200</v>
       </c>
       <c r="C198">
-        <v>2010</v>
+        <v>1964</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E198" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B199" t="s">
         <v>201</v>
       </c>
       <c r="C199">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E199" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B200" t="s">
         <v>202</v>
       </c>
       <c r="C200">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E200" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B201" t="s">
         <v>203</v>
       </c>
       <c r="C201">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E201" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B202" t="s">
         <v>204</v>
       </c>
       <c r="C202">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E202" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
       </c>
       <c r="C203">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E203" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B204" t="s">
         <v>206</v>
@@ -15189,202 +15202,202 @@
         <v>2014</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E204" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B205" t="s">
         <v>207</v>
       </c>
       <c r="C205">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E205" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B206" t="s">
         <v>208</v>
       </c>
       <c r="C206">
-        <v>1977</v>
+        <v>2000</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E206" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B207" t="s">
         <v>209</v>
       </c>
       <c r="C207">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E207" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B208" t="s">
         <v>210</v>
       </c>
       <c r="C208">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E208" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B209" t="s">
         <v>211</v>
       </c>
       <c r="C209">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E209" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B210" t="s">
         <v>212</v>
       </c>
       <c r="C210">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E210" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B211" t="s">
         <v>213</v>
       </c>
       <c r="C211">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E211" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
         <v>214</v>
       </c>
       <c r="C212">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E212" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
         <v>215</v>
       </c>
       <c r="C213">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E213" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B214" t="s">
         <v>216</v>
       </c>
       <c r="C214">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E214" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
         <v>217</v>
       </c>
       <c r="C215">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E215" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
         <v>218</v>
@@ -15393,270 +15406,270 @@
         <v>2014</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E216" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B217" t="s">
         <v>219</v>
       </c>
       <c r="C217">
-        <v>1965</v>
+        <v>2014</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E217" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B218" t="s">
         <v>220</v>
       </c>
       <c r="C218">
-        <v>2001</v>
+        <v>1965</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E218" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B219" t="s">
         <v>221</v>
       </c>
       <c r="C219">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E219" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B220" t="s">
         <v>222</v>
       </c>
       <c r="C220">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E220" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B221" t="s">
         <v>223</v>
       </c>
       <c r="C221">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E221" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B222" t="s">
         <v>224</v>
       </c>
       <c r="C222">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E222" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B223" t="s">
         <v>225</v>
       </c>
       <c r="C223">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E223" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B224" t="s">
         <v>226</v>
       </c>
       <c r="C224">
-        <v>1967</v>
+        <v>1995</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E224" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B225" t="s">
         <v>227</v>
       </c>
       <c r="C225">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E225" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B226" t="s">
         <v>228</v>
       </c>
       <c r="C226">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E226" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B227" t="s">
         <v>229</v>
       </c>
       <c r="C227">
-        <v>1995</v>
+        <v>1964</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E227" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B228" t="s">
         <v>230</v>
       </c>
       <c r="C228">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E228" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B229" t="s">
         <v>231</v>
       </c>
       <c r="C229">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E229" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B230" t="s">
         <v>232</v>
       </c>
       <c r="C230">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E230" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B231" t="s">
         <v>233</v>
       </c>
       <c r="C231">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E231" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B232" t="s">
         <v>234</v>
@@ -15665,134 +15678,134 @@
         <v>2013</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E232" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B233" t="s">
         <v>235</v>
       </c>
       <c r="C233">
-        <v>1964</v>
+        <v>2013</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E233" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B234" t="s">
         <v>236</v>
       </c>
       <c r="C234">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E234" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B235" t="s">
         <v>237</v>
       </c>
       <c r="C235">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E235" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B236" t="s">
         <v>238</v>
       </c>
       <c r="C236">
-        <v>1964</v>
+        <v>1993</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E236" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B237" t="s">
         <v>239</v>
       </c>
       <c r="C237">
-        <v>1994</v>
+        <v>1964</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E237" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B238" t="s">
         <v>240</v>
       </c>
       <c r="C238">
-        <v>1964</v>
+        <v>1994</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E238" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B239" t="s">
         <v>241</v>
       </c>
       <c r="C239">
-        <v>2013</v>
+        <v>1964</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E239" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B240" t="s">
         <v>242</v>
@@ -15801,15 +15814,15 @@
         <v>2013</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E240" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B241" t="s">
         <v>243</v>
@@ -15818,117 +15831,117 @@
         <v>2013</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E241" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B242" t="s">
         <v>244</v>
       </c>
       <c r="C242">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E242" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" t="s">
         <v>245</v>
       </c>
       <c r="C243">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E243" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" t="s">
         <v>246</v>
       </c>
       <c r="C244">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E244" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B245" t="s">
         <v>247</v>
       </c>
       <c r="C245">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E245" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B246" t="s">
         <v>248</v>
       </c>
       <c r="C246">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E246" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B247" t="s">
         <v>249</v>
       </c>
       <c r="C247">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E247" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B248" t="s">
         <v>250</v>
@@ -15937,219 +15950,219 @@
         <v>1994</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E248" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B249" t="s">
         <v>251</v>
       </c>
       <c r="C249">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E249" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B250" t="s">
         <v>252</v>
       </c>
       <c r="C250">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E250" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B251" t="s">
         <v>253</v>
       </c>
       <c r="C251">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E251" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B252" t="s">
         <v>254</v>
       </c>
       <c r="C252">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E252" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B253" t="s">
         <v>255</v>
       </c>
       <c r="C253">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E253" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B254" t="s">
         <v>256</v>
       </c>
       <c r="C254">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E254" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B255" t="s">
         <v>257</v>
       </c>
       <c r="C255">
-        <v>1965</v>
+        <v>1996</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E255" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B256" t="s">
         <v>258</v>
       </c>
       <c r="C256">
-        <v>2016</v>
+        <v>1965</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E256" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B257" t="s">
         <v>259</v>
       </c>
       <c r="C257">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E257" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B258" t="s">
         <v>260</v>
       </c>
       <c r="C258">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E258" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B259" t="s">
         <v>261</v>
       </c>
       <c r="C259">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E259" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B260" t="s">
         <v>262</v>
       </c>
       <c r="C260">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E260" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B261" t="s">
         <v>263</v>
@@ -16158,270 +16171,270 @@
         <v>1994</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E261" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B262" t="s">
         <v>264</v>
       </c>
       <c r="C262">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E262" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B263" t="s">
         <v>265</v>
       </c>
       <c r="C263">
-        <v>1968</v>
+        <v>1988</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E263" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B264" t="s">
         <v>266</v>
       </c>
       <c r="C264">
-        <v>2009</v>
+        <v>1968</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E264" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B265" t="s">
         <v>267</v>
       </c>
       <c r="C265">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E265" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B266" t="s">
         <v>268</v>
       </c>
       <c r="C266">
-        <v>1970</v>
+        <v>1994</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E266" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B267" t="s">
         <v>269</v>
       </c>
       <c r="C267">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E267" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B268" t="s">
         <v>270</v>
       </c>
       <c r="C268">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E268" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B269" t="s">
         <v>271</v>
       </c>
       <c r="C269">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E269" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B270" t="s">
         <v>272</v>
       </c>
       <c r="C270">
-        <v>1964</v>
+        <v>1995</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E270" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B271" t="s">
         <v>273</v>
       </c>
       <c r="C271">
-        <v>1992</v>
+        <v>1964</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E271" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B272" t="s">
         <v>274</v>
       </c>
       <c r="C272">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E272" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B273" t="s">
         <v>275</v>
       </c>
       <c r="C273">
-        <v>2000</v>
+        <v>1977</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E273" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B274" t="s">
         <v>276</v>
       </c>
       <c r="C274">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E274" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B275" t="s">
         <v>277</v>
       </c>
       <c r="C275">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E275" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B276" t="s">
         <v>278</v>
       </c>
       <c r="C276">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E276" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B277" t="s">
         <v>279</v>
@@ -16430,219 +16443,219 @@
         <v>2016</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E277" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B278" t="s">
         <v>280</v>
       </c>
       <c r="C278">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E278" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B279" t="s">
         <v>281</v>
       </c>
       <c r="C279">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E279" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B280" t="s">
         <v>282</v>
       </c>
       <c r="C280">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E280" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B281" t="s">
         <v>283</v>
       </c>
       <c r="C281">
-        <v>1973</v>
+        <v>2006</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E281" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B282" t="s">
         <v>284</v>
       </c>
       <c r="C282">
-        <v>2009</v>
+        <v>1973</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E282" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B283" t="s">
         <v>285</v>
       </c>
       <c r="C283">
-        <v>1970</v>
+        <v>2009</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E283" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B284" t="s">
         <v>286</v>
       </c>
       <c r="C284">
-        <v>1996</v>
+        <v>1970</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E284" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B285" t="s">
         <v>287</v>
       </c>
       <c r="C285">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E285" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B286" t="s">
         <v>288</v>
       </c>
       <c r="C286">
-        <v>1964</v>
+        <v>1990</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E286" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B287" t="s">
         <v>289</v>
       </c>
       <c r="C287">
-        <v>2000</v>
+        <v>1964</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E287" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B288" t="s">
         <v>290</v>
       </c>
       <c r="C288">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E288" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B289" t="s">
         <v>291</v>
       </c>
       <c r="C289">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E289" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B290" t="s">
         <v>292</v>
@@ -16651,83 +16664,83 @@
         <v>1996</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E290" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B291" t="s">
         <v>293</v>
       </c>
       <c r="C291">
-        <v>1968</v>
+        <v>1996</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E291" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B292" t="s">
         <v>294</v>
       </c>
       <c r="C292">
-        <v>2010</v>
+        <v>1968</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E292" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B293" t="s">
         <v>295</v>
       </c>
       <c r="C293">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E293" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B294" t="s">
         <v>296</v>
       </c>
       <c r="C294">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E294" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B295" t="s">
         <v>297</v>
@@ -16736,316 +16749,333 @@
         <v>2006</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E295" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B296" t="s">
         <v>298</v>
       </c>
       <c r="C296">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E296" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B297" t="s">
         <v>299</v>
       </c>
       <c r="C297">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E297" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B298" t="s">
         <v>300</v>
       </c>
       <c r="C298">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E298" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B299" t="s">
         <v>301</v>
       </c>
       <c r="C299">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E299" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B300" t="s">
         <v>302</v>
       </c>
       <c r="C300">
-        <v>1973</v>
+        <v>2014</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E300" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B301" t="s">
         <v>303</v>
       </c>
       <c r="C301">
-        <v>2000</v>
+        <v>1973</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E301" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B302" t="s">
         <v>304</v>
       </c>
       <c r="C302">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E302" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B303" t="s">
         <v>305</v>
       </c>
       <c r="C303">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E303" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B304" t="s">
         <v>306</v>
       </c>
       <c r="C304">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E304" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B305" t="s">
         <v>307</v>
       </c>
       <c r="C305">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E305" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B306" t="s">
         <v>308</v>
       </c>
       <c r="C306">
-        <v>1969</v>
+        <v>1992</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E306" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B307" t="s">
         <v>309</v>
       </c>
       <c r="C307">
-        <v>2013</v>
+        <v>1969</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E307" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B308" t="s">
         <v>310</v>
       </c>
       <c r="C308">
-        <v>1966</v>
+        <v>2013</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E308" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B309" t="s">
         <v>311</v>
       </c>
       <c r="C309">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E309" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B310" t="s">
         <v>312</v>
       </c>
       <c r="C310">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E310" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B311" t="s">
         <v>313</v>
       </c>
       <c r="C311">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E311" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B312" t="s">
         <v>314</v>
       </c>
       <c r="C312">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E312" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B313" t="s">
         <v>315</v>
       </c>
       <c r="C313">
+        <v>1994</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E313" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>407</v>
+      </c>
+      <c r="B314" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314">
         <v>1993</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E313" t="s">
-        <v>939</v>
+      <c r="D314" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E314" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -17362,6 +17392,7 @@
     <hyperlink ref="D311" r:id="rId310"/>
     <hyperlink ref="D312" r:id="rId311"/>
     <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
